--- a/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
+++ b/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="103">
   <si>
     <t>土地坐落</t>
   </si>
@@ -190,6 +190,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>台化</t>
   </si>
   <si>
@@ -224,6 +233,9 @@
   </si>
   <si>
     <t>國泰建設</t>
+  </si>
+  <si>
+    <t>2012-04-19</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1243,13 +1255,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1268,13 +1280,22 @@
       <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1291,13 +1312,22 @@
       <c r="G2" s="2">
         <v>60040</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1314,13 +1344,22 @@
       <c r="G3" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1337,13 +1376,22 @@
       <c r="G4" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1360,13 +1408,22 @@
       <c r="G5" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1383,13 +1440,22 @@
       <c r="G6" s="2">
         <v>435000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1406,13 +1472,22 @@
       <c r="G7" s="2">
         <v>1810740</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1429,13 +1504,22 @@
       <c r="G8" s="2">
         <v>223240</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1452,13 +1536,22 @@
       <c r="G9" s="2">
         <v>609600</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1475,13 +1568,22 @@
       <c r="G10" s="2">
         <v>782980</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1498,13 +1600,22 @@
       <c r="G11" s="2">
         <v>338950</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1521,13 +1632,22 @@
       <c r="G12" s="2">
         <v>310000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1543,6 +1663,15 @@
       </c>
       <c r="G13" s="2">
         <v>8740</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="2">
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -1560,13 +1689,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1574,10 +1703,10 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1588,10 +1717,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1612,43 +1741,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1656,22 +1785,22 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1684,43 +1813,43 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
+++ b/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="105">
   <si>
     <t>土地坐落</t>
   </si>
@@ -190,6 +190,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -233,6 +236,9 @@
   </si>
   <si>
     <t>國泰建設</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-19</t>
@@ -1255,13 +1261,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1289,13 +1295,16 @@
       <c r="J1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1313,21 +1322,24 @@
         <v>60040</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2">
+        <v>73</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1345,21 +1357,24 @@
         <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2">
+        <v>73</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1377,21 +1392,24 @@
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2">
+        <v>73</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1409,21 +1427,24 @@
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2">
+        <v>73</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1441,21 +1462,24 @@
         <v>435000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="2">
+        <v>73</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1473,21 +1497,24 @@
         <v>1810740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="2">
+        <v>73</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1505,21 +1532,24 @@
         <v>223240</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="2">
+        <v>73</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1537,21 +1567,24 @@
         <v>609600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="2">
+        <v>73</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1569,21 +1602,24 @@
         <v>782980</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="2">
+        <v>73</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1601,21 +1637,24 @@
         <v>338950</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="2">
+        <v>73</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1633,21 +1672,24 @@
         <v>310000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="2">
+        <v>73</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1665,12 +1707,15 @@
         <v>8740</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="2">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="2">
         <v>866</v>
       </c>
     </row>
@@ -1689,13 +1734,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1703,10 +1748,10 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1717,10 +1762,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1741,43 +1786,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1785,22 +1830,22 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1813,43 +1858,43 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
+++ b/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="110">
   <si>
     <t>土地坐落</t>
   </si>
@@ -193,6 +193,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -202,6 +205,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>台化</t>
   </si>
   <si>
@@ -241,7 +250,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-19</t>
+  </si>
+  <si>
+    <t>tmp9edb1</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1261,13 +1276,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1298,13 +1313,22 @@
       <c r="K1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1322,24 +1346,33 @@
         <v>60040</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2">
+        <v>77</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1357,24 +1390,33 @@
         <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2">
+        <v>77</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1392,24 +1434,33 @@
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="2">
+        <v>77</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1427,24 +1478,33 @@
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2">
+        <v>77</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1462,24 +1522,33 @@
         <v>435000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="2">
+        <v>77</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1497,24 +1566,33 @@
         <v>1810740</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="2">
+        <v>866</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="2">
         <v>72</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1532,24 +1610,33 @@
         <v>223240</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2">
+        <v>77</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1567,24 +1654,33 @@
         <v>609600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2">
+        <v>77</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1602,24 +1698,33 @@
         <v>782980</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2">
+        <v>77</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1637,24 +1742,33 @@
         <v>338950</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2">
+        <v>77</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1672,24 +1786,33 @@
         <v>310000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2">
+        <v>77</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1707,16 +1830,25 @@
         <v>8740</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2">
+        <v>77</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="2">
         <v>866</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1734,13 +1866,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1748,10 +1880,10 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1762,10 +1894,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1786,43 +1918,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1830,22 +1962,22 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1858,43 +1990,43 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
+++ b/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
@@ -20,9 +20,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="110">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="115">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段二小段08340000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區華城二段02140000地號</t>
+  </si>
+  <si>
+    <t>10000分之202</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>賴士葆</t>
+  </si>
+  <si>
+    <t>林良娥</t>
+  </si>
+  <si>
+    <t>83年9月</t>
+  </si>
+  <si>
+    <t>92年7月</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-19</t>
+  </si>
+  <si>
+    <t>tmp9edb1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,52 +127,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區瑞安段二小段 0834-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市新店區華城二段 0214-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 202</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>賴士葆</t>
-  </si>
-  <si>
-    <t>林良娥</t>
-  </si>
-  <si>
-    <t>83年9月</t>
-  </si>
-  <si>
-    <t>92年7月</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段二小段 02940-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段二小段 02983-000 建號</t>
-  </si>
-  <si>
-    <t>新北市新店區華城二段 00053-000 建號</t>
+    <t>臺北市大安區瑞安段二小段02940000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段二小段02983000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區華城二段00053000建號</t>
   </si>
   <si>
     <t>56分之1</t>
   </si>
   <si>
-    <t>(超過五年,地 下室停車位）</t>
+    <t>(超過五年地下室停車位）</t>
   </si>
   <si>
     <t>(超堝石年)</t>
@@ -106,7 +157,7 @@
     <t>中華休旅車</t>
   </si>
   <si>
-    <t>94年05月 26日</t>
+    <t>94年05月26日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -124,28 +175,28 @@
     <t>臺灣土地銀行文山分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行和平分 行</t>
+    <t>台北富邦商業銀行和平分行</t>
   </si>
   <si>
     <t>元大商業銀行台北分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行西門支 庫</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行東門支 庫</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行大安支 庫</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行南門分 行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行信義分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台 北青田郵局</t>
+    <t>合作金庫商業銀行西門支庫</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行東門支庫</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行大安支庫</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行南門分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北青田郵局</t>
   </si>
   <si>
     <t>臺灣銀行城中分行</t>
@@ -172,12 +223,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -190,27 +235,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>台化</t>
   </si>
   <si>
@@ -250,15 +274,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-19</t>
-  </si>
-  <si>
-    <t>tmp9edb1</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -274,7 +289,7 @@
     <t>國華人壽</t>
   </si>
   <si>
-    <t>安泰人壽靈活理財變額保險 甲型</t>
+    <t>安泰人壽靈活理財變額保險甲型</t>
   </si>
   <si>
     <t>國華人壽終身壽險</t>
@@ -708,13 +723,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,57 +751,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2623</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>866</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>471.04</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>866</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -804,25 +882,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -830,25 +908,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>156.6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -856,25 +934,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>4370.2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -882,25 +960,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
         <v>238.91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -918,22 +996,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -941,22 +1019,22 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -974,19 +1052,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -994,16 +1072,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2">
         <v>444132</v>
@@ -1014,16 +1092,16 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2">
         <v>458581</v>
@@ -1034,16 +1112,16 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
         <v>82078</v>
@@ -1054,16 +1132,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>274</v>
@@ -1074,16 +1152,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
         <v>749</v>
@@ -1094,16 +1172,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
         <v>14220</v>
@@ -1114,16 +1192,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2">
         <v>7838222</v>
@@ -1134,16 +1212,16 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2">
         <v>314</v>
@@ -1154,16 +1232,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2">
         <v>327281</v>
@@ -1174,16 +1252,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2">
         <v>949</v>
@@ -1194,16 +1272,16 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2">
         <v>35427</v>
@@ -1214,16 +1292,16 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2">
         <v>8600</v>
@@ -1234,16 +1312,16 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2">
         <v>115</v>
@@ -1254,16 +1332,16 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
         <v>3827</v>
@@ -1284,43 +1362,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1328,10 +1406,10 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>6004</v>
@@ -1340,28 +1418,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
         <v>60040</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>866</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2">
         <v>67</v>
@@ -1372,10 +1450,10 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>50000</v>
@@ -1384,28 +1462,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2">
         <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2">
         <v>866</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N3" s="2">
         <v>68</v>
@@ -1416,10 +1494,10 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>5000</v>
@@ -1428,28 +1506,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2">
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2">
         <v>866</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N4" s="2">
         <v>69</v>
@@ -1460,10 +1538,10 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>20000</v>
@@ -1472,28 +1550,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2">
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2">
         <v>866</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N5" s="2">
         <v>70</v>
@@ -1504,10 +1582,10 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>43500</v>
@@ -1516,28 +1594,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2">
         <v>435000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2">
         <v>866</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N6" s="2">
         <v>71</v>
@@ -1548,10 +1626,10 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>181074</v>
@@ -1560,28 +1638,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2">
         <v>1810740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L7" s="2">
         <v>866</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N7" s="2">
         <v>72</v>
@@ -1592,10 +1670,10 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>22324</v>
@@ -1604,28 +1682,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2">
         <v>223240</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2">
         <v>866</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N8" s="2">
         <v>74</v>
@@ -1636,10 +1714,10 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>60960</v>
@@ -1648,28 +1726,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G9" s="2">
         <v>609600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L9" s="2">
         <v>866</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N9" s="2">
         <v>75</v>
@@ -1680,10 +1758,10 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>78298</v>
@@ -1692,28 +1770,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G10" s="2">
         <v>782980</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L10" s="2">
         <v>866</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N10" s="2">
         <v>76</v>
@@ -1724,10 +1802,10 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>33895</v>
@@ -1736,28 +1814,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2">
         <v>338950</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L11" s="2">
         <v>866</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N11" s="2">
         <v>77</v>
@@ -1768,10 +1846,10 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>31000</v>
@@ -1780,28 +1858,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2">
         <v>310000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L12" s="2">
         <v>866</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N12" s="2">
         <v>78</v>
@@ -1812,10 +1890,10 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>874</v>
@@ -1824,28 +1902,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2">
         <v>8740</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L13" s="2">
         <v>866</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N13" s="2">
         <v>79</v>
@@ -1866,13 +1944,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1880,13 +1958,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1894,13 +1972,13 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1918,43 +1996,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1962,22 +2040,22 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1990,43 +2068,43 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
+++ b/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -64,72 +64,51 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區瑞安段二小段08340000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市新店區華城二段02140000地號</t>
   </si>
   <si>
-    <t>10000分之202</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>林良娥</t>
+  </si>
+  <si>
+    <t>92年7月</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-19</t>
+  </si>
+  <si>
     <t>賴士葆</t>
   </si>
   <si>
-    <t>林良娥</t>
+    <t>tmp9edb1</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段二小段02940000建號</t>
   </si>
   <si>
     <t>83年9月</t>
   </si>
   <si>
-    <t>92年7月</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-19</t>
-  </si>
-  <si>
-    <t>tmp9edb1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段二小段02940000建號</t>
-  </si>
-  <si>
     <t>臺北市大安區瑞安段二小段02983000建號</t>
   </si>
   <si>
@@ -145,36 +124,21 @@
     <t>(超堝石年)</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽紅容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>中華休旅車</t>
   </si>
   <si>
     <t>94年05月26日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣土地銀行文山分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行和平分行</t>
   </si>
   <si>
@@ -211,18 +175,12 @@
     <t>台中第三信用合作社</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -232,12 +190,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>台化</t>
-  </si>
-  <si>
     <t>中華電</t>
   </si>
   <si>
@@ -274,97 +226,61 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>安泰人壽靈活理財變額保險甲型</t>
+  </si>
+  <si>
     <t>國華人壽</t>
   </si>
   <si>
-    <t>安泰人壽靈活理財變額保險甲型</t>
-  </si>
-  <si>
     <t>國華人壽終身壽險</t>
   </si>
   <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>債務</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>權</t>
-  </si>
-  <si>
-    <t>及</t>
+    <t>(十二）事業投</t>
+  </si>
+  <si>
+    <t>資（總金額</t>
+  </si>
+  <si>
+    <t>元）</t>
+  </si>
+  <si>
+    <t>投資人</t>
+  </si>
+  <si>
+    <t>投資</t>
+  </si>
+  <si>
+    <t>事業名</t>
+  </si>
+  <si>
+    <t>稱</t>
+  </si>
+  <si>
+    <t>投</t>
+  </si>
+  <si>
+    <t>資</t>
+  </si>
+  <si>
+    <t>事</t>
+  </si>
+  <si>
+    <t>業</t>
   </si>
   <si>
     <t>地址</t>
   </si>
   <si>
-    <t>餘</t>
-  </si>
-  <si>
-    <t>額</t>
+    <t>金額</t>
   </si>
   <si>
     <t>取得（發生）時間</t>
   </si>
   <si>
     <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>(十二）事業投</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>資（總金額</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>事業名</t>
-  </si>
-  <si>
-    <t>元）</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>事</t>
-  </si>
-  <si>
-    <t>投</t>
-  </si>
-  <si>
-    <t>資</t>
-  </si>
-  <si>
-    <t>業</t>
-  </si>
-  <si>
-    <t>金額</t>
   </si>
 </sst>
 </file>
@@ -723,13 +639,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,99 +688,64 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2623</v>
+        <v>471.04</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2">
         <v>866</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>471.04</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2">
-        <v>866</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +755,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -882,103 +763,77 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1">
+        <v>156.6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4370.2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2">
-        <v>156.6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
-        <v>4370.2</v>
+        <v>238.91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2">
-        <v>238.91</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -988,53 +843,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1997</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1997</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1044,7 +876,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1052,298 +884,278 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
+        <v>444132</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>444132</v>
+        <v>458581</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>458581</v>
+        <v>82078</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
-        <v>82078</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
-        <v>274</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2">
-        <v>749</v>
+        <v>14220</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2">
-        <v>14220</v>
+        <v>7838222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2">
-        <v>7838222</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2">
-        <v>314</v>
+        <v>327281</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
-        <v>327281</v>
+        <v>949</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="2">
-        <v>949</v>
+        <v>35427</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2">
-        <v>35427</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2">
-        <v>8600</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>60</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2">
         <v>3827</v>
       </c>
     </row>
@@ -1354,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1368,16 +1180,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1403,529 +1215,485 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>6004</v>
+        <v>50000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
-        <v>60040</v>
+        <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2">
         <v>866</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2">
         <v>866</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2">
         <v>866</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>20000</v>
+        <v>43500</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2">
-        <v>200000</v>
+        <v>435000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2">
         <v>866</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
-        <v>43500</v>
+        <v>181074</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
-        <v>435000</v>
+        <v>1810740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2">
         <v>866</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>181074</v>
+        <v>22324</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
-        <v>1810740</v>
+        <v>223240</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2">
         <v>866</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>22324</v>
+        <v>60960</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2">
-        <v>223240</v>
+        <v>609600</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L8" s="2">
         <v>866</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N8" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>60960</v>
+        <v>78298</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
-        <v>609600</v>
+        <v>782980</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L9" s="2">
         <v>866</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N9" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>78298</v>
+        <v>33895</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2">
-        <v>782980</v>
+        <v>338950</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L10" s="2">
         <v>866</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N10" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>33895</v>
+        <v>31000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2">
-        <v>338950</v>
+        <v>310000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L11" s="2">
         <v>866</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N11" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>31000</v>
+        <v>874</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2">
-        <v>310000</v>
+        <v>8740</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L12" s="2">
         <v>866</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N12" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
-        <v>79</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2">
-        <v>874</v>
-      </c>
-      <c r="E13" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="2">
-        <v>8740</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="2">
-        <v>866</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="2">
         <v>79</v>
       </c>
     </row>
@@ -1936,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1944,41 +1712,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>103</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +1742,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1996,115 +1750,69 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>115</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
+++ b/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -70,15 +70,27 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區瑞安段二小段08340000地號</t>
+  </si>
+  <si>
     <t>新北市新店區華城二段02140000地號</t>
   </si>
   <si>
+    <t>10000分之202</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>賴士葆</t>
+  </si>
+  <si>
     <t>林良娥</t>
   </si>
   <si>
+    <t>83年9月</t>
+  </si>
+  <si>
     <t>92年7月</t>
   </si>
   <si>
@@ -97,18 +109,12 @@
     <t>2012-04-19</t>
   </si>
   <si>
-    <t>賴士葆</t>
-  </si>
-  <si>
     <t>tmp9edb1</t>
   </si>
   <si>
     <t>臺北市大安區瑞安段二小段02940000建號</t>
   </si>
   <si>
-    <t>83年9月</t>
-  </si>
-  <si>
     <t>臺北市大安區瑞安段二小段02983000建號</t>
   </si>
   <si>
@@ -188,6 +194,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>台化</t>
   </si>
   <si>
     <t>中華電</t>
@@ -639,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,54 +706,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>471.04</v>
+        <v>2623</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>866</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0202</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>52.9846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>471.04</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2">
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>866</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>1</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>471.04</v>
       </c>
     </row>
@@ -755,85 +817,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>156.6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1">
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>866</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>156.6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4370.2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>866</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2">
-        <v>4370.2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0178571428571429</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>78.0392857142857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2">
+        <v>238.91</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>866</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>238.91</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -843,30 +1039,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1">
         <v>1997</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1997</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -884,16 +1103,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1">
         <v>444132</v>
@@ -901,261 +1120,281 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
-        <v>458581</v>
+        <v>444132</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>82078</v>
+        <v>458581</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
-        <v>274</v>
+        <v>82078</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
-        <v>749</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
-        <v>14220</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
-        <v>7838222</v>
+        <v>14220</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
-        <v>314</v>
+        <v>7838222</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
-        <v>327281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2">
-        <v>949</v>
+        <v>327281</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2">
-        <v>35427</v>
+        <v>949</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2">
-        <v>8600</v>
+        <v>35427</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2">
-        <v>115</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
         <v>60</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
         <v>3827</v>
       </c>
     </row>
@@ -1166,7 +1405,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,13 +1419,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1215,485 +1454,529 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
-        <v>50000</v>
+        <v>6004</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
-        <v>500000</v>
+        <v>60040</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>866</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2">
         <v>866</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2">
         <v>866</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
-        <v>43500</v>
+        <v>20000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2">
-        <v>435000</v>
+        <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2">
         <v>866</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>181074</v>
+        <v>43500</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
-        <v>1810740</v>
+        <v>435000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2">
         <v>866</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N6" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
-        <v>22324</v>
+        <v>181074</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
-        <v>223240</v>
+        <v>1810740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2">
         <v>866</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N7" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
-        <v>60960</v>
+        <v>22324</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
-        <v>609600</v>
+        <v>223240</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L8" s="2">
         <v>866</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N8" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
-        <v>78298</v>
+        <v>60960</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
-        <v>782980</v>
+        <v>609600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L9" s="2">
         <v>866</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N9" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>33895</v>
+        <v>78298</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
-        <v>338950</v>
+        <v>782980</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L10" s="2">
         <v>866</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N10" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
-        <v>31000</v>
+        <v>33895</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
-        <v>310000</v>
+        <v>338950</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L11" s="2">
         <v>866</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N11" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>874</v>
+        <v>31000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2">
-        <v>8740</v>
+        <v>310000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L12" s="2">
         <v>866</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N12" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2">
+        <v>874</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8740</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="2">
+        <v>866</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="2">
         <v>79</v>
       </c>
     </row>
@@ -1704,7 +1987,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1712,27 +1995,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>103</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1742,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1750,16 +2047,16 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1773,7 +2070,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>75</v>
@@ -1782,37 +2079,63 @@
         <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>115</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>86</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
+++ b/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>(超堝石年)</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>中華休旅車</t>
@@ -1039,38 +1042,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1">
-        <v>1997</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -1079,13 +1103,34 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>866</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1103,13 +1148,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1123,13 +1168,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1143,13 +1188,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1163,13 +1208,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1183,13 +1228,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1203,13 +1248,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1223,13 +1268,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1243,13 +1288,13 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1263,13 +1308,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1283,13 +1328,13 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1303,13 +1348,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1323,13 +1368,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1343,13 +1388,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1363,13 +1408,13 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1383,13 +1428,13 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -1419,13 +1464,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1457,7 +1502,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1469,13 +1514,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>60040</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1501,7 +1546,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1513,13 +1558,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
         <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1545,7 +1590,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1557,13 +1602,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
@@ -1589,7 +1634,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1601,13 +1646,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
@@ -1633,7 +1678,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1645,13 +1690,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
         <v>435000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>27</v>
@@ -1677,7 +1722,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1689,13 +1734,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
         <v>1810740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>27</v>
@@ -1721,7 +1766,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1733,13 +1778,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2">
         <v>223240</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>27</v>
@@ -1765,7 +1810,7 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1777,13 +1822,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
         <v>609600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>27</v>
@@ -1809,7 +1854,7 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1821,13 +1866,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2">
         <v>782980</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>27</v>
@@ -1853,7 +1898,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1865,13 +1910,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2">
         <v>338950</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>27</v>
@@ -1897,7 +1942,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -1909,13 +1954,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2">
         <v>310000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>27</v>
@@ -1941,7 +1986,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -1953,13 +1998,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2">
         <v>8740</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>27</v>
@@ -1995,10 +2040,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -2009,10 +2054,10 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -2023,10 +2068,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -2047,16 +2092,16 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2073,16 +2118,16 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2099,43 +2144,43 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
+++ b/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -130,6 +130,9 @@
     <t>(超堝石年)</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t>94年05月26日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣土地銀行文山分行</t>
@@ -902,7 +908,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -955,7 +961,7 @@
         <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
@@ -1008,7 +1014,7 @@
         <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>27</v>
@@ -1053,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1094,7 +1100,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -1103,7 +1109,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
@@ -1112,7 +1118,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1148,13 +1154,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1168,13 +1174,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1188,13 +1194,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1208,13 +1214,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1228,13 +1234,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1248,13 +1254,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1268,13 +1274,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1288,13 +1294,13 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1308,13 +1314,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1328,13 +1334,13 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1348,13 +1354,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1368,13 +1374,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1388,13 +1394,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1408,13 +1414,13 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1428,13 +1434,13 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -1464,13 +1470,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1502,7 +1508,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1514,13 +1520,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2">
         <v>60040</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1546,7 +1552,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1558,13 +1564,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2">
         <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1590,7 +1596,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1602,13 +1608,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2">
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
@@ -1634,7 +1640,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1646,13 +1652,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2">
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
@@ -1678,7 +1684,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1690,13 +1696,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2">
         <v>435000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>27</v>
@@ -1722,7 +1728,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1734,13 +1740,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2">
         <v>1810740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>27</v>
@@ -1766,7 +1772,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1778,13 +1784,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2">
         <v>223240</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>27</v>
@@ -1810,7 +1816,7 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1822,13 +1828,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2">
         <v>609600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>27</v>
@@ -1854,7 +1860,7 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1866,13 +1872,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2">
         <v>782980</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>27</v>
@@ -1898,7 +1904,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1910,13 +1916,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2">
         <v>338950</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>27</v>
@@ -1942,7 +1948,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -1954,13 +1960,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2">
         <v>310000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>27</v>
@@ -1986,7 +1992,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -1998,13 +2004,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2">
         <v>8740</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>27</v>
@@ -2040,10 +2046,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -2054,10 +2060,10 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -2068,10 +2074,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -2092,16 +2098,16 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2118,16 +2124,16 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2144,43 +2150,43 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
+++ b/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -145,64 +145,73 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣土地銀行文山分行</t>
   </si>
   <si>
+    <t>台北富邦商業銀行和平分行</t>
+  </si>
+  <si>
+    <t>元大商業銀行台北分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行西門支庫</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行東門支庫</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行大安支庫</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行南門分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北青田郵局</t>
+  </si>
+  <si>
+    <t>臺灣銀行城中分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公.司</t>
+  </si>
+  <si>
+    <t>慶豐商業銀行</t>
+  </si>
+  <si>
+    <t>台中第三信用合作社</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北富邦商業銀行和平分行</t>
-  </si>
-  <si>
-    <t>元大商業銀行台北分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行西門支庫</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行東門支庫</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行大安支庫</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行南門分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北青田郵局</t>
-  </si>
-  <si>
-    <t>臺灣銀行城中分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公.司</t>
-  </si>
-  <si>
-    <t>慶豐商業銀行</t>
-  </si>
-  <si>
-    <t>台中第三信用合作社</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>台化</t>
@@ -1146,13 +1155,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1163,24 +1172,45 @@
         <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1">
-        <v>444132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1188,19 +1218,40 @@
       <c r="F2" s="2">
         <v>444132</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>866</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1208,19 +1259,40 @@
       <c r="F3" s="2">
         <v>458581</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>866</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1228,19 +1300,40 @@
       <c r="F4" s="2">
         <v>82078</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>866</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1248,19 +1341,40 @@
       <c r="F5" s="2">
         <v>274</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>866</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1268,19 +1382,40 @@
       <c r="F6" s="2">
         <v>749</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>866</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1288,19 +1423,40 @@
       <c r="F7" s="2">
         <v>14220</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>866</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1308,19 +1464,40 @@
       <c r="F8" s="2">
         <v>7838222</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>866</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1328,19 +1505,40 @@
       <c r="F9" s="2">
         <v>314</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>866</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1348,19 +1546,40 @@
       <c r="F10" s="2">
         <v>327281</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>866</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1368,19 +1587,40 @@
       <c r="F11" s="2">
         <v>949</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>866</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1388,19 +1628,40 @@
       <c r="F12" s="2">
         <v>35427</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
+        <v>866</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1408,19 +1669,40 @@
       <c r="F13" s="2">
         <v>8600</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>866</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1428,25 +1710,67 @@
       <c r="F14" s="2">
         <v>115</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>866</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="2">
         <v>3827</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2">
+        <v>866</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="2">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1470,13 +1794,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1508,7 +1832,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1520,13 +1844,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>60040</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1552,7 +1876,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1564,13 +1888,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
         <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1596,7 +1920,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1608,13 +1932,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2">
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
@@ -1640,7 +1964,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1652,13 +1976,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
@@ -1684,7 +2008,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1696,13 +2020,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2">
         <v>435000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>27</v>
@@ -1728,7 +2052,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1740,13 +2064,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2">
         <v>1810740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>27</v>
@@ -1772,7 +2096,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1784,13 +2108,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2">
         <v>223240</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>27</v>
@@ -1816,7 +2140,7 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1828,13 +2152,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2">
         <v>609600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>27</v>
@@ -1860,7 +2184,7 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1872,13 +2196,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2">
         <v>782980</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>27</v>
@@ -1904,7 +2228,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1916,13 +2240,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2">
         <v>338950</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>27</v>
@@ -1948,7 +2272,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -1960,13 +2284,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2">
         <v>310000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>27</v>
@@ -1992,7 +2316,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -2004,13 +2328,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2">
         <v>8740</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>27</v>
@@ -2046,10 +2370,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -2060,10 +2384,10 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -2074,10 +2398,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -2098,16 +2422,16 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2124,16 +2448,16 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2150,43 +2474,43 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
+++ b/legislator/property/output/normal/賴士葆_2012-04-19_財產申報表_tmp9edb1.xlsx
@@ -13,14 +13,13 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="債務" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -253,61 +252,22 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>國華人壽</t>
+  </si>
+  <si>
     <t>安泰人壽靈活理財變額保險甲型</t>
   </si>
   <si>
-    <t>國華人壽</t>
-  </si>
-  <si>
     <t>國華人壽終身壽險</t>
   </si>
   <si>
-    <t>(十二）事業投</t>
-  </si>
-  <si>
-    <t>資（總金額</t>
-  </si>
-  <si>
-    <t>元）</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>事業名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>投</t>
-  </si>
-  <si>
-    <t>資</t>
-  </si>
-  <si>
-    <t>事</t>
-  </si>
-  <si>
-    <t>業</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2362,38 +2322,80 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2">
+        <v>866</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>103</v>
       </c>
@@ -2401,116 +2403,31 @@
         <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>114</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>115</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
+      </c>
+      <c r="I3" s="2">
+        <v>866</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
